--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itga7.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.464265666666667</v>
+        <v>2.750415333333333</v>
       </c>
       <c r="N2">
-        <v>4.392797</v>
+        <v>8.251245999999998</v>
       </c>
       <c r="O2">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="P2">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="Q2">
-        <v>0.02891485411966666</v>
+        <v>0.05431245158733333</v>
       </c>
       <c r="R2">
-        <v>0.260233687077</v>
+        <v>0.4888120642859999</v>
       </c>
       <c r="S2">
-        <v>0.01871483359827478</v>
+        <v>0.03436223909444881</v>
       </c>
       <c r="T2">
-        <v>0.01871483359827478</v>
+        <v>0.03436223909444881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>2.427118</v>
       </c>
       <c r="O3">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="P3">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="Q3">
         <v>0.01597609971533333</v>
@@ -632,10 +632,10 @@
         <v>0.143784897438</v>
       </c>
       <c r="S3">
-        <v>0.01034036161775231</v>
+        <v>0.01010771088711213</v>
       </c>
       <c r="T3">
-        <v>0.01034036161775231</v>
+        <v>0.01010771088711213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>160.813717</v>
       </c>
       <c r="O4">
-        <v>0.9593165469325392</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="P4">
-        <v>0.9593165469325391</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="Q4">
         <v>1.058529489866333</v>
       </c>
       <c r="R4">
-        <v>9.526765408796999</v>
+        <v>9.526765408797001</v>
       </c>
       <c r="S4">
-        <v>0.6851220199738464</v>
+        <v>0.6697072652083125</v>
       </c>
       <c r="T4">
-        <v>0.6851220199738463</v>
+        <v>0.6697072652083125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.464265666666667</v>
+        <v>2.750415333333333</v>
       </c>
       <c r="N5">
-        <v>4.392797</v>
+        <v>8.251245999999998</v>
       </c>
       <c r="O5">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="P5">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="Q5">
-        <v>0.01157209156366667</v>
+        <v>0.02173653237933333</v>
       </c>
       <c r="R5">
-        <v>0.104148824073</v>
+        <v>0.195628791414</v>
       </c>
       <c r="S5">
-        <v>0.007489913907285442</v>
+        <v>0.01375220416080564</v>
       </c>
       <c r="T5">
-        <v>0.007489913907285441</v>
+        <v>0.01375220416080564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>2.427118</v>
       </c>
       <c r="O6">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="P6">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="Q6">
         <v>0.006393837851333334</v>
@@ -818,10 +818,10 @@
         <v>0.057544540662</v>
       </c>
       <c r="S6">
-        <v>0.004138343944148302</v>
+        <v>0.004045234169283798</v>
       </c>
       <c r="T6">
-        <v>0.004138343944148301</v>
+        <v>0.0040452341692838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>160.813717</v>
       </c>
       <c r="O7">
-        <v>0.9593165469325392</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="P7">
-        <v>0.9593165469325391</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="Q7">
         <v>0.4236369351503333</v>
@@ -880,10 +880,10 @@
         <v>3.812732416353</v>
       </c>
       <c r="S7">
-        <v>0.2741945269586929</v>
+        <v>0.2680253464800371</v>
       </c>
       <c r="T7">
-        <v>0.2741945269586928</v>
+        <v>0.2680253464800372</v>
       </c>
     </row>
   </sheetData>
